--- a/bank statement generator/bank_statements/statement_112.xlsx
+++ b/bank statement generator/bank_statements/statement_112.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 18.12.2024</t>
+          <t>KONTOSTAND AM 17.03.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,146 +759,114 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>19.12.</t>
+          <t>21.03.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>20.12.</t>
+          <t>22.03.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>PAYPAL LNCUTB</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>23,99-</t>
+          <t>97,01-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>21.12.</t>
+          <t>25.03.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>22.12.</t>
+          <t>26.03.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>EBAY MKTPLC EU USMRUN</t>
+          <t>BEITRAG Allianz SE K-75866988</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>117,61-</t>
+          <t>56,80-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>25.12.</t>
+          <t>29.03.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>26.12.</t>
+          <t>30.03.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 38432986</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 85160029</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>38,52-</t>
+          <t>86,59-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>29.12.</t>
+          <t>02.04.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>30.12.</t>
+          <t>03.04.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG JET TANKSTELLE</t>
+          <t>KARTENZ./02.04 ALDI SUED RO</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>58,87-</t>
+          <t>98,71-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>01.01.</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>02.01.</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>KARTENZ./01.01 ALDI SUED RO</t>
-        </is>
-      </c>
-      <c r="E10" s="17" t="inlineStr">
-        <is>
-          <t>88,81-</t>
-        </is>
-      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="12" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>04.01.</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>05.01.</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 91808625</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="inlineStr">
-        <is>
-          <t>87,89-</t>
-        </is>
-      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="12" t="n"/>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 09.01.2025</t>
+          <t>KONTOSTAND AM 04.04.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>415,69-</t>
+          <t>339,11-</t>
         </is>
       </c>
     </row>
@@ -906,7 +874,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 18.01.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 13.04.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
